--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.15/avg_0.004_scores.xlsx
@@ -115,16 +115,16 @@
     <t>safety</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>hope</t>
@@ -1093,25 +1093,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.7665198237885462</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L19">
         <v>174</v>
       </c>
       <c r="M19">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1223,25 +1223,25 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.6503067484662577</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L24">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1249,25 +1249,25 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.6410256410256411</v>
+        <v>0.6404199475065617</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1275,25 +1275,25 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.6404199475065617</v>
+        <v>0.6350877192982456</v>
       </c>
       <c r="L26">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="M26">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1301,25 +1301,25 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.6350877192982456</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="L27">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="M27">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="10:17">
